--- a/zData Dashboard/Data Aduan 2022-2023.xlsx
+++ b/zData Dashboard/Data Aduan 2022-2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA D\Tugas\Tugas Akhir\TA-Topics Dashboard\zData Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08133D16-EF3A-4056-8375-8C3C72A0E47E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF6FD32-0E5D-4583-83BE-1D314F403C09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{006ACF9D-1A41-47F3-BC71-89A3447C1D8E}"/>
   </bookViews>
@@ -9094,8 +9094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA14221-5C56-4178-87B1-134271840A4E}">
   <dimension ref="A1:B1584"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1567" workbookViewId="0">
-      <selection activeCell="D1575" sqref="D1575"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
